--- a/KS_재정통계자료작성/Result/세출_지출_세목_세부사업_예산편성현황_2019.xlsx
+++ b/KS_재정통계자료작성/Result/세출_지출_세목_세부사업_예산편성현황_2019.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="세출_지출_세목(외화)" sheetId="9" r:id="rId1"/>
-    <sheet name="세출_지출_세부사업(외화)" sheetId="1" r:id="rId2"/>
-    <sheet name="세출_지출_세목(총액)" sheetId="6" r:id="rId3"/>
-    <sheet name="세출_지출_세부사업(총액)" sheetId="3" r:id="rId4"/>
-    <sheet name="세출_지출_세목(총지출)" sheetId="7" r:id="rId5"/>
-    <sheet name="세출_지출_세부사업(총지출)" sheetId="4" r:id="rId6"/>
+    <sheet name="세출_지출_세부사업(외화)" sheetId="1" r:id="rId1"/>
+    <sheet name="세출_지출_세부사업(총액)" sheetId="3" r:id="rId2"/>
+    <sheet name="세출_지출_세부사업(총지출)" sheetId="4" r:id="rId3"/>
+    <sheet name="세출_지출_세부사업(추경포함)" sheetId="5" r:id="rId4"/>
+    <sheet name="세출_지출_세목(총액)" sheetId="6" r:id="rId5"/>
+    <sheet name="세출_지출_세목(총지출)" sheetId="7" r:id="rId6"/>
     <sheet name="세출_지출_세목(추경포함)" sheetId="8" r:id="rId7"/>
-    <sheet name="세출_지출_세부사업(추경포함)" sheetId="5" r:id="rId8"/>
+    <sheet name="세출_지출_세목(외화)" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="105">
   <si>
     <t>증   감</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -144,16 +144,316 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>세출_지출_세목(총액)</t>
-  </si>
-  <si>
-    <t>세출_지출_세목(총지출)</t>
-  </si>
-  <si>
-    <t>세출_지출_세목(추경포함)</t>
-  </si>
-  <si>
-    <t>세출_지출_세목(외화)</t>
+    <t>□ 세출_지출_세목_세부사업_탬플릿(총액)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>증   감</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비    고</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정부안금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>감 사 원</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국 회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기 획 재 정 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보 건 복 지 부 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국 방 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국 회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>□ 세출_지출_세목_세부사업_탬플릿(총지출)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단위 : 천원)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>항   목</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>증   감</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비    고</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전년도국회확정금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정부안금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국회확정금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전년도국회확정금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정부안금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>감 사 원</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>경 찰 청</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고 용 노 동 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>관 세 청</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>교 육 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국 방 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국 회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기 획 재 정 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대 법 원</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보 건 복 지 부 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>일 반 회 계</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>감 사 원</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>경 찰 청</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>관 세 청</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>교 육 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국 방 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기 획 재 정 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대 법 원</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보 건 복 지 부 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>□ 세출_지출_세목_세부사업_탬플릿(추경포함)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단위 : 천원)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비    고</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>추경국회확정금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>본예산금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>경 찰 청</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고 용 노 동 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>관 세 청</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국 회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>교 육 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국 방 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보 건 복 지 부 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단위 : 달러)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>항   목</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>증   감</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>비    고</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정부안금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국회확정금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>감 사 원</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>경 찰 청</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>고 용 노 동 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>관 세 청</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>교 육 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국 방 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국 회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기 획 재 정 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대 법 원</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보 건 복 지 부 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>일 반 회 계</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>감 사 원</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>경 찰 청</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>관 세 청</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>교 육 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국 방 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>국 회</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기 획 재 정 부</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대 법 원</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보 건 복 지 부 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기 타</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -884,7 +1184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,6 +1277,12 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1336,6 +1642,290 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17417</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67491</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F237882A-68F3-452F-B0A0-E17302CCAAAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="678180" y="654232"/>
+          <a:ext cx="11058797" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3849188</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67491</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70817F1-6CA3-4423-876C-F25B11C2C2E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="678180" y="654232"/>
+          <a:ext cx="13419908" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>3849188</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67491</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DEFC3BF-ADEF-4BDD-98DD-10C8FC1813E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="678180" y="654232"/>
+          <a:ext cx="13419908" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>17417</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67491</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5E9AF8-7243-44D5-9EC6-CC2593882DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="678180" y="654232"/>
+          <a:ext cx="11058797" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -1633,25 +2223,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1683,27 +2254,27 @@
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="35">
         <v>2018</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35">
         <v>2019</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="31" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="19" t="s">
         <v>2</v>
       </c>
@@ -1716,8 +2287,8 @@
       <c r="F5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="32"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -2073,26 +2644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H27"/>
   <sheetViews>
@@ -2125,27 +2677,27 @@
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="35">
         <v>2018</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35">
         <v>2019</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="31" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="19" t="s">
         <v>2</v>
       </c>
@@ -2158,8 +2710,8 @@
       <c r="F5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="32"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -2515,26 +3067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
@@ -2569,29 +3102,29 @@
     </row>
     <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="35">
         <v>2018</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35">
         <v>2019</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="31" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="20" t="s">
         <v>21</v>
       </c>
@@ -2610,8 +3143,8 @@
       <c r="H5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="32"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -3023,26 +3556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J27"/>
   <sheetViews>
@@ -3077,29 +3591,29 @@
     </row>
     <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="35">
         <v>2018</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35">
         <v>2019</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="31" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="20" t="s">
         <v>23</v>
       </c>
@@ -3118,8 +3632,8 @@
       <c r="H5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="32"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
@@ -3529,4 +4043,2388 @@
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.8984375" customWidth="1"/>
+    <col min="2" max="3" width="15.69921875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="50.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1"/>
+      <c r="H2" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="35">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35">
+        <v>2019</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6">
+        <v>130129781</v>
+      </c>
+      <c r="D6" s="6">
+        <v>129689781</v>
+      </c>
+      <c r="E6" s="6">
+        <v>132882000</v>
+      </c>
+      <c r="F6" s="7">
+        <v>132418000</v>
+      </c>
+      <c r="G6" s="28">
+        <f>F6-D6</f>
+        <v>2728219</v>
+      </c>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10502868559</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10500637559</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10963292000</v>
+      </c>
+      <c r="F7" s="9">
+        <v>10939083000</v>
+      </c>
+      <c r="G7" s="29">
+        <f t="shared" ref="G7:G27" si="0">F7-D7</f>
+        <v>438445441</v>
+      </c>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5781937160</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5938798160</v>
+      </c>
+      <c r="E8" s="8">
+        <v>7097228000</v>
+      </c>
+      <c r="F8" s="9">
+        <v>6965760000</v>
+      </c>
+      <c r="G8" s="29">
+        <f t="shared" si="0"/>
+        <v>1026961840</v>
+      </c>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>542927273</v>
+      </c>
+      <c r="D9" s="8">
+        <v>539007273</v>
+      </c>
+      <c r="E9" s="8">
+        <v>566060000</v>
+      </c>
+      <c r="F9" s="9">
+        <v>551334400</v>
+      </c>
+      <c r="G9" s="29">
+        <f t="shared" si="0"/>
+        <v>12327127</v>
+      </c>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>63838661485</v>
+      </c>
+      <c r="D10" s="8">
+        <v>63872934485</v>
+      </c>
+      <c r="E10" s="8">
+        <v>70743520000</v>
+      </c>
+      <c r="F10" s="9">
+        <v>70448553000</v>
+      </c>
+      <c r="G10" s="29">
+        <f t="shared" si="0"/>
+        <v>6575618515</v>
+      </c>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8">
+        <v>29635188477</v>
+      </c>
+      <c r="D11" s="8">
+        <v>29637827477</v>
+      </c>
+      <c r="E11" s="8">
+        <v>31323761000</v>
+      </c>
+      <c r="F11" s="9">
+        <v>31323761000</v>
+      </c>
+      <c r="G11" s="29">
+        <f t="shared" si="0"/>
+        <v>1685933523</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8">
+        <v>598444545</v>
+      </c>
+      <c r="D12" s="8">
+        <v>605160545</v>
+      </c>
+      <c r="E12" s="8">
+        <v>638084000</v>
+      </c>
+      <c r="F12" s="9">
+        <v>640904000</v>
+      </c>
+      <c r="G12" s="29">
+        <f t="shared" si="0"/>
+        <v>35743455</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="10">
+        <v>14556675912</v>
+      </c>
+      <c r="D13" s="10">
+        <v>14702583912</v>
+      </c>
+      <c r="E13" s="10">
+        <v>15770716000</v>
+      </c>
+      <c r="F13" s="11">
+        <v>15979064500</v>
+      </c>
+      <c r="G13" s="29">
+        <f t="shared" si="0"/>
+        <v>1276480588</v>
+      </c>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1552089824</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1552423824</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1628937000</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1622520000</v>
+      </c>
+      <c r="G14" s="29">
+        <f t="shared" si="0"/>
+        <v>70096176</v>
+      </c>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="10">
+        <v>38623158695</v>
+      </c>
+      <c r="D15" s="10">
+        <v>37477610695</v>
+      </c>
+      <c r="E15" s="10">
+        <v>44492602000</v>
+      </c>
+      <c r="F15" s="11">
+        <v>44865455000</v>
+      </c>
+      <c r="G15" s="29">
+        <f t="shared" si="0"/>
+        <v>7387844305</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="17">
+        <f>SUM(C6:C15)</f>
+        <v>165762081711</v>
+      </c>
+      <c r="D16" s="17">
+        <f>SUM(D6:D15)</f>
+        <v>164956673711</v>
+      </c>
+      <c r="E16" s="17">
+        <f>SUM(E6:E15)</f>
+        <v>183357082000</v>
+      </c>
+      <c r="F16" s="18">
+        <f>SUM(F6:F15)</f>
+        <v>183468852900</v>
+      </c>
+      <c r="G16" s="30">
+        <f t="shared" si="0"/>
+        <v>18512179189</v>
+      </c>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8">
+        <v>81262819</v>
+      </c>
+      <c r="D18" s="8">
+        <v>81262819</v>
+      </c>
+      <c r="E18" s="8">
+        <v>85099000</v>
+      </c>
+      <c r="F18" s="9">
+        <v>85099000</v>
+      </c>
+      <c r="G18" s="29">
+        <f t="shared" si="0"/>
+        <v>3836181</v>
+      </c>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="8">
+        <v>35565534000</v>
+      </c>
+      <c r="D19" s="8">
+        <v>35585534000</v>
+      </c>
+      <c r="E19" s="8">
+        <v>35402874000</v>
+      </c>
+      <c r="F19" s="9">
+        <v>34666162000</v>
+      </c>
+      <c r="G19" s="29">
+        <f t="shared" si="0"/>
+        <v>-919372000</v>
+      </c>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="8">
+        <v>16900439000</v>
+      </c>
+      <c r="D21" s="8">
+        <v>16910439000</v>
+      </c>
+      <c r="E21" s="8">
+        <v>17061109000</v>
+      </c>
+      <c r="F21" s="9">
+        <v>17139024000</v>
+      </c>
+      <c r="G21" s="29">
+        <f t="shared" si="0"/>
+        <v>228585000</v>
+      </c>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5787273000</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5781479000</v>
+      </c>
+      <c r="E22" s="8">
+        <v>5568523000</v>
+      </c>
+      <c r="F22" s="9">
+        <v>5568559000</v>
+      </c>
+      <c r="G22" s="29">
+        <f t="shared" si="0"/>
+        <v>-212920000</v>
+      </c>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="10">
+        <v>256669332000</v>
+      </c>
+      <c r="D24" s="10">
+        <v>256105251000</v>
+      </c>
+      <c r="E24" s="10">
+        <v>281200483000</v>
+      </c>
+      <c r="F24" s="11">
+        <v>283535757000</v>
+      </c>
+      <c r="G24" s="29">
+        <f t="shared" si="0"/>
+        <v>27430506000</v>
+      </c>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="10">
+        <v>422609685</v>
+      </c>
+      <c r="D25" s="10">
+        <v>422609685</v>
+      </c>
+      <c r="E25" s="10">
+        <v>389241000</v>
+      </c>
+      <c r="F25" s="11">
+        <v>389241000</v>
+      </c>
+      <c r="G25" s="29">
+        <f t="shared" si="0"/>
+        <v>-33368685</v>
+      </c>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="10">
+        <v>122937135396</v>
+      </c>
+      <c r="D26" s="10">
+        <v>122994335396</v>
+      </c>
+      <c r="E26" s="10">
+        <v>124287106000</v>
+      </c>
+      <c r="F26" s="11">
+        <v>124324649000</v>
+      </c>
+      <c r="G26" s="29">
+        <f t="shared" si="0"/>
+        <v>1330313604</v>
+      </c>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="17">
+        <f>SUM(C17:C26)</f>
+        <v>438363585900</v>
+      </c>
+      <c r="D27" s="17">
+        <f>SUM(D17:D26)</f>
+        <v>437880910900</v>
+      </c>
+      <c r="E27" s="17">
+        <f>SUM(E17:E26)</f>
+        <v>463994435000</v>
+      </c>
+      <c r="F27" s="18">
+        <f>SUM(F17:F26)</f>
+        <v>465708491000</v>
+      </c>
+      <c r="G27" s="30">
+        <f t="shared" si="0"/>
+        <v>27827580100</v>
+      </c>
+      <c r="H27" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.8984375" customWidth="1"/>
+    <col min="2" max="4" width="15.69921875" style="1" customWidth="1"/>
+    <col min="5" max="9" width="15.69921875" customWidth="1"/>
+    <col min="10" max="10" width="50.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1"/>
+      <c r="J2" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="35">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35">
+        <v>2019</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="6">
+        <v>125186906</v>
+      </c>
+      <c r="D6" s="6">
+        <v>130129781</v>
+      </c>
+      <c r="E6" s="6">
+        <v>129689781</v>
+      </c>
+      <c r="F6" s="6">
+        <v>129689781</v>
+      </c>
+      <c r="G6" s="7">
+        <v>132882000</v>
+      </c>
+      <c r="H6" s="7">
+        <v>132418000</v>
+      </c>
+      <c r="I6" s="25">
+        <f t="shared" ref="I6:I27" si="0">H6-E6</f>
+        <v>2728219</v>
+      </c>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10027519111</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10464247559</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10459184559</v>
+      </c>
+      <c r="F7" s="8">
+        <v>10459184559</v>
+      </c>
+      <c r="G7" s="9">
+        <v>10919458000</v>
+      </c>
+      <c r="H7" s="9">
+        <v>10895249000</v>
+      </c>
+      <c r="I7" s="26">
+        <f t="shared" si="0"/>
+        <v>436064441</v>
+      </c>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2048863920</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5696155160</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5833016160</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5833016160</v>
+      </c>
+      <c r="G8" s="9">
+        <v>6941446000</v>
+      </c>
+      <c r="H8" s="9">
+        <v>6809978000</v>
+      </c>
+      <c r="I8" s="26">
+        <f t="shared" si="0"/>
+        <v>976961840</v>
+      </c>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="8">
+        <v>512859434</v>
+      </c>
+      <c r="D9" s="8">
+        <v>542927273</v>
+      </c>
+      <c r="E9" s="8">
+        <v>539007273</v>
+      </c>
+      <c r="F9" s="8">
+        <v>539007273</v>
+      </c>
+      <c r="G9" s="9">
+        <v>566060000</v>
+      </c>
+      <c r="H9" s="9">
+        <v>551334400</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" si="0"/>
+        <v>12327127</v>
+      </c>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="8">
+        <v>52237733743</v>
+      </c>
+      <c r="D10" s="8">
+        <v>59129707485</v>
+      </c>
+      <c r="E10" s="8">
+        <v>59163980485</v>
+      </c>
+      <c r="F10" s="8">
+        <v>59163980485</v>
+      </c>
+      <c r="G10" s="9">
+        <v>66103116000</v>
+      </c>
+      <c r="H10" s="9">
+        <v>65736734000</v>
+      </c>
+      <c r="I10" s="26">
+        <f t="shared" si="0"/>
+        <v>6572753515</v>
+      </c>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="8">
+        <v>25422165001</v>
+      </c>
+      <c r="D11" s="8">
+        <v>26817334477</v>
+      </c>
+      <c r="E11" s="8">
+        <v>26819973477</v>
+      </c>
+      <c r="F11" s="8">
+        <v>26819973477</v>
+      </c>
+      <c r="G11" s="9">
+        <v>28383235000</v>
+      </c>
+      <c r="H11" s="9">
+        <v>28383235000</v>
+      </c>
+      <c r="I11" s="26">
+        <f t="shared" si="0"/>
+        <v>1563261523</v>
+      </c>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="8">
+        <v>574269038</v>
+      </c>
+      <c r="D12" s="8">
+        <v>598444545</v>
+      </c>
+      <c r="E12" s="8">
+        <v>605160545</v>
+      </c>
+      <c r="F12" s="8">
+        <v>605160545</v>
+      </c>
+      <c r="G12" s="9">
+        <v>638084000</v>
+      </c>
+      <c r="H12" s="9">
+        <v>640904000</v>
+      </c>
+      <c r="I12" s="26">
+        <f t="shared" si="0"/>
+        <v>35743455</v>
+      </c>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="10">
+        <v>3437716438</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3443094912</v>
+      </c>
+      <c r="E13" s="10">
+        <v>3440147912</v>
+      </c>
+      <c r="F13" s="10">
+        <v>3440147912</v>
+      </c>
+      <c r="G13" s="11">
+        <v>3477585000</v>
+      </c>
+      <c r="H13" s="11">
+        <v>3462313500</v>
+      </c>
+      <c r="I13" s="26">
+        <f t="shared" si="0"/>
+        <v>22165588</v>
+      </c>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1481729118</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1552089824</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1552423824</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1552423824</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1628937000</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1622520000</v>
+      </c>
+      <c r="I14" s="26">
+        <f t="shared" si="0"/>
+        <v>70096176</v>
+      </c>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="10">
+        <v>33458879280</v>
+      </c>
+      <c r="D15" s="10">
+        <v>38307875695</v>
+      </c>
+      <c r="E15" s="10">
+        <v>37159815695</v>
+      </c>
+      <c r="F15" s="10">
+        <v>37159815695</v>
+      </c>
+      <c r="G15" s="11">
+        <v>44165277000</v>
+      </c>
+      <c r="H15" s="11">
+        <v>44536213000</v>
+      </c>
+      <c r="I15" s="26">
+        <f t="shared" si="0"/>
+        <v>7376397305</v>
+      </c>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="17">
+        <f t="shared" ref="C16:H16" si="1">SUM(C6:C15)</f>
+        <v>129326921989</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="1"/>
+        <v>146682006711</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="1"/>
+        <v>145702399711</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="1"/>
+        <v>145702399711</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="1"/>
+        <v>162956080000</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="1"/>
+        <v>162770898900</v>
+      </c>
+      <c r="I16" s="27">
+        <f t="shared" si="0"/>
+        <v>17068499189</v>
+      </c>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="8">
+        <v>73225729</v>
+      </c>
+      <c r="D18" s="8">
+        <v>76992819</v>
+      </c>
+      <c r="E18" s="8">
+        <v>76992819</v>
+      </c>
+      <c r="F18" s="8">
+        <v>76992819</v>
+      </c>
+      <c r="G18" s="9">
+        <v>80413000</v>
+      </c>
+      <c r="H18" s="9">
+        <v>80413000</v>
+      </c>
+      <c r="I18" s="26">
+        <f t="shared" si="0"/>
+        <v>3420181</v>
+      </c>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="8">
+        <v>16212564000</v>
+      </c>
+      <c r="D19" s="8">
+        <v>18061890000</v>
+      </c>
+      <c r="E19" s="8">
+        <v>17970255000</v>
+      </c>
+      <c r="F19" s="8">
+        <v>17970255000</v>
+      </c>
+      <c r="G19" s="9">
+        <v>20180958000</v>
+      </c>
+      <c r="H19" s="9">
+        <v>19906325000</v>
+      </c>
+      <c r="I19" s="26">
+        <f t="shared" si="0"/>
+        <v>1936070000</v>
+      </c>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="8">
+        <v>9393916000</v>
+      </c>
+      <c r="D21" s="8">
+        <v>9058257000</v>
+      </c>
+      <c r="E21" s="8">
+        <v>9068257000</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9068257000</v>
+      </c>
+      <c r="G21" s="9">
+        <v>9102046000</v>
+      </c>
+      <c r="H21" s="9">
+        <v>9179579000</v>
+      </c>
+      <c r="I21" s="26">
+        <f t="shared" si="0"/>
+        <v>111322000</v>
+      </c>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4263592000</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4525033000</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4482964000</v>
+      </c>
+      <c r="F22" s="8">
+        <v>4482964000</v>
+      </c>
+      <c r="G22" s="9">
+        <v>4728141000</v>
+      </c>
+      <c r="H22" s="9">
+        <v>4725151000</v>
+      </c>
+      <c r="I22" s="26">
+        <f t="shared" si="0"/>
+        <v>242187000</v>
+      </c>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="10">
+        <v>16872765000</v>
+      </c>
+      <c r="D24" s="10">
+        <v>18018318000</v>
+      </c>
+      <c r="E24" s="10">
+        <v>17362475000</v>
+      </c>
+      <c r="F24" s="10">
+        <v>17362475000</v>
+      </c>
+      <c r="G24" s="11">
+        <v>18478789000</v>
+      </c>
+      <c r="H24" s="11">
+        <v>17600031000</v>
+      </c>
+      <c r="I24" s="26">
+        <f t="shared" si="0"/>
+        <v>237556000</v>
+      </c>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="10">
+        <v>258961773</v>
+      </c>
+      <c r="D25" s="10">
+        <v>270424685</v>
+      </c>
+      <c r="E25" s="10">
+        <v>271924685</v>
+      </c>
+      <c r="F25" s="10">
+        <v>271924685</v>
+      </c>
+      <c r="G25" s="11">
+        <v>283299000</v>
+      </c>
+      <c r="H25" s="11">
+        <v>282876000</v>
+      </c>
+      <c r="I25" s="26">
+        <f t="shared" si="0"/>
+        <v>10951315</v>
+      </c>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="10">
+        <v>24203893539</v>
+      </c>
+      <c r="D26" s="10">
+        <v>25933718396</v>
+      </c>
+      <c r="E26" s="10">
+        <v>25995614396</v>
+      </c>
+      <c r="F26" s="10">
+        <v>25995614396</v>
+      </c>
+      <c r="G26" s="11">
+        <v>28210548000</v>
+      </c>
+      <c r="H26" s="11">
+        <v>27978560000</v>
+      </c>
+      <c r="I26" s="26">
+        <f t="shared" si="0"/>
+        <v>1982945604</v>
+      </c>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="17">
+        <f t="shared" ref="C27:H27" si="2">SUM(C17:C26)</f>
+        <v>71278918041</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" si="2"/>
+        <v>75944633900</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="2"/>
+        <v>75228482900</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="2"/>
+        <v>75228482900</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="2"/>
+        <v>81064194000</v>
+      </c>
+      <c r="H27" s="18">
+        <f t="shared" si="2"/>
+        <v>79752935000</v>
+      </c>
+      <c r="I27" s="27">
+        <f t="shared" si="0"/>
+        <v>4524452100</v>
+      </c>
+      <c r="J27" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.8984375" customWidth="1"/>
+    <col min="2" max="4" width="15.69921875" style="1" customWidth="1"/>
+    <col min="5" max="9" width="15.69921875" customWidth="1"/>
+    <col min="10" max="10" width="50.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1"/>
+      <c r="J2" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="35">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35">
+        <v>2019</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="35"/>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="25">
+        <f t="shared" ref="I6:I27" si="0">H6-E6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="17">
+        <f t="shared" ref="C16:H16" si="1">SUM(C6:C15)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="23"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="17">
+        <f t="shared" ref="C27:H27" si="2">SUM(C17:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.8984375" customWidth="1"/>
+    <col min="2" max="3" width="15.69921875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="50.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1"/>
+      <c r="H2" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="35">
+        <v>2018</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35">
+        <v>2019</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="6">
+        <v>729357</v>
+      </c>
+      <c r="D6" s="6">
+        <v>729357</v>
+      </c>
+      <c r="E6" s="6">
+        <v>561036</v>
+      </c>
+      <c r="F6" s="7">
+        <v>561036</v>
+      </c>
+      <c r="G6" s="25">
+        <f>F6-D6</f>
+        <v>-168321</v>
+      </c>
+      <c r="H6" s="22"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="8">
+        <v>4403025</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4403025</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3359393</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3359393</v>
+      </c>
+      <c r="G7" s="26">
+        <f t="shared" ref="G7:G27" si="0">F7-D7</f>
+        <v>-1043632</v>
+      </c>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="8">
+        <v>9449966</v>
+      </c>
+      <c r="D8" s="8">
+        <v>9449966</v>
+      </c>
+      <c r="E8" s="8">
+        <v>9592251</v>
+      </c>
+      <c r="F8" s="9">
+        <v>9619523</v>
+      </c>
+      <c r="G8" s="26">
+        <f t="shared" si="0"/>
+        <v>169557</v>
+      </c>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2280373</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2280373</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2136678</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2136678</v>
+      </c>
+      <c r="G9" s="26">
+        <f t="shared" si="0"/>
+        <v>-143695</v>
+      </c>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="8">
+        <v>62575040</v>
+      </c>
+      <c r="D10" s="8">
+        <v>62575040</v>
+      </c>
+      <c r="E10" s="8">
+        <v>61232237</v>
+      </c>
+      <c r="F10" s="9">
+        <v>62478600</v>
+      </c>
+      <c r="G10" s="26">
+        <f t="shared" si="0"/>
+        <v>-96440</v>
+      </c>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1316175550</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1316170382</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1406903671</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1404980524</v>
+      </c>
+      <c r="G11" s="26">
+        <f t="shared" si="0"/>
+        <v>88810142</v>
+      </c>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="8">
+        <v>10971808</v>
+      </c>
+      <c r="D12" s="8">
+        <v>10971808</v>
+      </c>
+      <c r="E12" s="8">
+        <v>10524755</v>
+      </c>
+      <c r="F12" s="9">
+        <v>10755104</v>
+      </c>
+      <c r="G12" s="26">
+        <f t="shared" si="0"/>
+        <v>-216704</v>
+      </c>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="10">
+        <v>7385394</v>
+      </c>
+      <c r="D13" s="10">
+        <v>7059443</v>
+      </c>
+      <c r="E13" s="10">
+        <v>29685370</v>
+      </c>
+      <c r="F13" s="11">
+        <v>29607414</v>
+      </c>
+      <c r="G13" s="26">
+        <f t="shared" si="0"/>
+        <v>22547971</v>
+      </c>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="10">
+        <v>6720651</v>
+      </c>
+      <c r="D14" s="10">
+        <v>6720651</v>
+      </c>
+      <c r="E14" s="10">
+        <v>7111340</v>
+      </c>
+      <c r="F14" s="11">
+        <v>7135860</v>
+      </c>
+      <c r="G14" s="26">
+        <f t="shared" si="0"/>
+        <v>415209</v>
+      </c>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="10">
+        <v>165041</v>
+      </c>
+      <c r="D15" s="10">
+        <v>165041</v>
+      </c>
+      <c r="E15" s="10">
+        <v>131866</v>
+      </c>
+      <c r="F15" s="11">
+        <v>131866</v>
+      </c>
+      <c r="G15" s="26">
+        <f t="shared" si="0"/>
+        <v>-33175</v>
+      </c>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="17">
+        <f>SUM(C6:C15)</f>
+        <v>1420856205</v>
+      </c>
+      <c r="D16" s="17">
+        <f>SUM(D6:D15)</f>
+        <v>1420525086</v>
+      </c>
+      <c r="E16" s="17">
+        <f>SUM(E6:E15)</f>
+        <v>1531238597</v>
+      </c>
+      <c r="F16" s="18">
+        <f>SUM(F6:F15)</f>
+        <v>1530765998</v>
+      </c>
+      <c r="G16" s="27">
+        <f t="shared" si="0"/>
+        <v>110240912</v>
+      </c>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="8">
+        <v>136782</v>
+      </c>
+      <c r="D19" s="8">
+        <v>136782</v>
+      </c>
+      <c r="E19" s="8">
+        <v>139313</v>
+      </c>
+      <c r="F19" s="9">
+        <v>139313</v>
+      </c>
+      <c r="G19" s="26">
+        <f t="shared" si="0"/>
+        <v>2531</v>
+      </c>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="8">
+        <v>87279413</v>
+      </c>
+      <c r="D22" s="8">
+        <v>87279413</v>
+      </c>
+      <c r="E22" s="8">
+        <v>85604177</v>
+      </c>
+      <c r="F22" s="9">
+        <v>85604177</v>
+      </c>
+      <c r="G22" s="26">
+        <f t="shared" si="0"/>
+        <v>-1675236</v>
+      </c>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="10">
+        <v>34969</v>
+      </c>
+      <c r="D24" s="10">
+        <v>34969</v>
+      </c>
+      <c r="E24" s="10">
+        <v>27871</v>
+      </c>
+      <c r="F24" s="11">
+        <v>27871</v>
+      </c>
+      <c r="G24" s="26">
+        <f t="shared" si="0"/>
+        <v>-7098</v>
+      </c>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="10">
+        <v>23442</v>
+      </c>
+      <c r="D25" s="10">
+        <v>23442</v>
+      </c>
+      <c r="E25" s="10">
+        <v>20244</v>
+      </c>
+      <c r="F25" s="11">
+        <v>20244</v>
+      </c>
+      <c r="G25" s="26">
+        <f t="shared" si="0"/>
+        <v>-3198</v>
+      </c>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1272414</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1272414</v>
+      </c>
+      <c r="E26" s="10">
+        <v>26803</v>
+      </c>
+      <c r="F26" s="11">
+        <v>26803</v>
+      </c>
+      <c r="G26" s="26">
+        <f t="shared" si="0"/>
+        <v>-1245611</v>
+      </c>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="17">
+        <f>SUM(C17:C26)</f>
+        <v>88747020</v>
+      </c>
+      <c r="D27" s="17">
+        <f>SUM(D17:D26)</f>
+        <v>88747020</v>
+      </c>
+      <c r="E27" s="17">
+        <f>SUM(E17:E26)</f>
+        <v>85818408</v>
+      </c>
+      <c r="F27" s="18">
+        <f>SUM(F17:F26)</f>
+        <v>85818408</v>
+      </c>
+      <c r="G27" s="27">
+        <f t="shared" si="0"/>
+        <v>-2928612</v>
+      </c>
+      <c r="H27" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/KS_재정통계자료작성/Result/세출_지출_세목_세부사업_예산편성현황_2019.xlsx
+++ b/KS_재정통계자료작성/Result/세출_지출_세목_세부사업_예산편성현황_2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\KS_재정통계자료작성\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8184D1-B3BE-4578-98B6-08BE3B80D82C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="세출_지출_세부사업(외화)" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="세출_지출_세목(추경포함)" sheetId="8" r:id="rId7"/>
     <sheet name="세출_지출_세목(외화)" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="33">
   <si>
     <t>증   감</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -104,27 +105,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>□ 세출_지출_세목_세부사업_탬플릿(외화)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>□ 세출_지출_세목_세부사업_탬플릿(총액)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>(단위 : 천원)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>□ 세출_지출_세목_세부사업_탬플릿(총지출)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>전년도국회확정금액</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>□ 세출_지출_세목_세부사업_탬플릿(추경포함)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -144,322 +129,48 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>□ 세출_지출_세목_세부사업_탬플릿(총액)</t>
+    <t>2018/2019년도 데이터 미존재</t>
+  </si>
+  <si>
+    <t>□ 세출_지출_세부사업(외화)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>증   감</t>
+    <t>□ 세출_지출_세부사업(총액)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>비    고</t>
+    <t>□ 세출_지출_세부사업(총지출)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>정부안금액</t>
+    <t>2019년도 데이터 미존재</t>
+  </si>
+  <si>
+    <t>□ 세출_지출_세부사업(추경포함)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>감 사 원</t>
+    <t>□ 세출_지출_세목(총액)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>국 회</t>
+    <t>□ 세출_지출_세목(총지출)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>기 획 재 정 부</t>
+    <t>□ 세출_지출_세목(추경포함)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">보 건 복 지 부 </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>국 방 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>국 회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>□ 세출_지출_세목_세부사업_탬플릿(총지출)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(단위 : 천원)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>항   목</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>증   감</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>비    고</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전년도국회확정금액</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정부안금액</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>국회확정금액</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전년도국회확정금액</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정부안금액</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>감 사 원</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>경 찰 청</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>고 용 노 동 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>관 세 청</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>교 육 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>국 방 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>국 회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기 획 재 정 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>대 법 원</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보 건 복 지 부 </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>일 반 회 계</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>감 사 원</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>경 찰 청</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>관 세 청</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>교 육 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>국 방 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기 획 재 정 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>대 법 원</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보 건 복 지 부 </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>□ 세출_지출_세목_세부사업_탬플릿(추경포함)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(단위 : 천원)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>비    고</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>추경국회확정금액</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>본예산금액</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>경 찰 청</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>고 용 노 동 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>관 세 청</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>국 회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>교 육 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>국 방 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보 건 복 지 부 </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>(단위 : 달러)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>항   목</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>증   감</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>비    고</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>정부안금액</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>국회확정금액</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>감 사 원</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>경 찰 청</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>고 용 노 동 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>관 세 청</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>교 육 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>국 방 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>국 회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기 획 재 정 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>대 법 원</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보 건 복 지 부 </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>일 반 회 계</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>감 사 원</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>경 찰 청</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>관 세 청</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>교 육 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>국 방 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>국 회</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기 획 재 정 부</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>대 법 원</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보 건 복 지 부 </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>기 타</t>
+    <t>□ 세출_지출_세목(외화)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
@@ -1184,7 +895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1279,6 +990,18 @@
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1662,7 +1385,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F237882A-68F3-452F-B0A0-E17302CCAAAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7D27D5-056F-4380-8A72-1E2AA13F6EF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1733,7 +1456,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70817F1-6CA3-4423-876C-F25B11C2C2E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54BBA46-3915-4747-95F8-F8755CD7A66C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1527,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DEFC3BF-ADEF-4BDD-98DD-10C8FC1813E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B93AE7-27FF-46CC-A1C5-CAE18767C140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1598,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5E9AF8-7243-44D5-9EC6-CC2593882DF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76E8B34-72FB-4593-BDD6-B4BA44242806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +1945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2239,7 +1962,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="1"/>
@@ -2254,27 +1977,27 @@
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="39">
         <v>2018</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39">
         <v>2019</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>26</v>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="35"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="19" t="s">
         <v>2</v>
       </c>
@@ -2287,21 +2010,29 @@
       <c r="F5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="6">
+        <v>729357</v>
+      </c>
+      <c r="D6" s="6">
+        <v>729357</v>
+      </c>
+      <c r="E6" s="6">
+        <v>561036</v>
+      </c>
+      <c r="F6" s="7">
+        <v>561036</v>
+      </c>
       <c r="G6" s="25">
         <f>F6-D6</f>
-        <v>0</v>
+        <v>-168321</v>
       </c>
       <c r="H6" s="22"/>
     </row>
@@ -2310,13 +2041,21 @@
       <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="8">
+        <v>4403025</v>
+      </c>
+      <c r="D7" s="8">
+        <v>4403025</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3359393</v>
+      </c>
+      <c r="F7" s="9">
+        <v>3359393</v>
+      </c>
       <c r="G7" s="26">
         <f t="shared" ref="G7:G27" si="0">F7-D7</f>
-        <v>0</v>
+        <v>-1043632</v>
       </c>
       <c r="H7" s="23"/>
     </row>
@@ -2325,13 +2064,21 @@
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="C8" s="8">
+        <v>9449966</v>
+      </c>
+      <c r="D8" s="8">
+        <v>9449966</v>
+      </c>
+      <c r="E8" s="8">
+        <v>9592251</v>
+      </c>
+      <c r="F8" s="9">
+        <v>9619523</v>
+      </c>
       <c r="G8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>169557</v>
       </c>
       <c r="H8" s="23"/>
     </row>
@@ -2340,13 +2087,21 @@
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="8">
+        <v>2280373</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2280373</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2136678</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2136678</v>
+      </c>
       <c r="G9" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-143695</v>
       </c>
       <c r="H9" s="23"/>
     </row>
@@ -2355,13 +2110,21 @@
       <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="8">
+        <v>62575040</v>
+      </c>
+      <c r="D10" s="8">
+        <v>62575040</v>
+      </c>
+      <c r="E10" s="8">
+        <v>61232237</v>
+      </c>
+      <c r="F10" s="9">
+        <v>62478600</v>
+      </c>
       <c r="G10" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-96440</v>
       </c>
       <c r="H10" s="23"/>
     </row>
@@ -2370,13 +2133,21 @@
       <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="8">
+        <v>1316175550</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1316170382</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1406903671</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1404980524</v>
+      </c>
       <c r="G11" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88810142</v>
       </c>
       <c r="H11" s="23"/>
     </row>
@@ -2385,13 +2156,21 @@
       <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="8">
+        <v>10971808</v>
+      </c>
+      <c r="D12" s="8">
+        <v>10971808</v>
+      </c>
+      <c r="E12" s="8">
+        <v>10524755</v>
+      </c>
+      <c r="F12" s="9">
+        <v>10755104</v>
+      </c>
       <c r="G12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-216704</v>
       </c>
       <c r="H12" s="23"/>
     </row>
@@ -2399,13 +2178,21 @@
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+      <c r="C13" s="10">
+        <v>7385394</v>
+      </c>
+      <c r="D13" s="10">
+        <v>7059443</v>
+      </c>
+      <c r="E13" s="10">
+        <v>29685370</v>
+      </c>
+      <c r="F13" s="11">
+        <v>29607414</v>
+      </c>
       <c r="G13" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22547971</v>
       </c>
       <c r="H13" s="23"/>
     </row>
@@ -2413,13 +2200,21 @@
       <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="10">
+        <v>6720651</v>
+      </c>
+      <c r="D14" s="10">
+        <v>6720651</v>
+      </c>
+      <c r="E14" s="10">
+        <v>7111340</v>
+      </c>
+      <c r="F14" s="11">
+        <v>7135860</v>
+      </c>
       <c r="G14" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>415209</v>
       </c>
       <c r="H14" s="23"/>
     </row>
@@ -2427,13 +2222,21 @@
       <c r="B15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
+      <c r="C15" s="10">
+        <v>165041</v>
+      </c>
+      <c r="D15" s="10">
+        <v>165041</v>
+      </c>
+      <c r="E15" s="10">
+        <v>131866</v>
+      </c>
+      <c r="F15" s="11">
+        <v>131866</v>
+      </c>
       <c r="G15" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-33175</v>
       </c>
       <c r="H15" s="23"/>
     </row>
@@ -2443,23 +2246,23 @@
       </c>
       <c r="C16" s="17">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>1420856205</v>
       </c>
       <c r="D16" s="17">
         <f>SUM(D6:D15)</f>
-        <v>0</v>
+        <v>1420525086</v>
       </c>
       <c r="E16" s="17">
         <f>SUM(E6:E15)</f>
-        <v>0</v>
+        <v>1531238597</v>
       </c>
       <c r="F16" s="18">
         <f>SUM(F6:F15)</f>
-        <v>0</v>
+        <v>1530765998</v>
       </c>
       <c r="G16" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>110240912</v>
       </c>
       <c r="H16" s="24"/>
     </row>
@@ -2467,41 +2270,69 @@
       <c r="B17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
       <c r="G17" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
       <c r="G18" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="23"/>
+      <c r="H18" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="8">
+        <v>136782</v>
+      </c>
+      <c r="D19" s="8">
+        <v>136782</v>
+      </c>
+      <c r="E19" s="8">
+        <v>139313</v>
+      </c>
+      <c r="F19" s="9">
+        <v>139313</v>
+      </c>
       <c r="G19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2531</v>
       </c>
       <c r="H19" s="23"/>
     </row>
@@ -2509,41 +2340,69 @@
       <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
       <c r="G20" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
       <c r="G21" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="23"/>
+      <c r="H21" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="8">
+        <v>87279413</v>
+      </c>
+      <c r="D22" s="8">
+        <v>87279413</v>
+      </c>
+      <c r="E22" s="8">
+        <v>85604177</v>
+      </c>
+      <c r="F22" s="9">
+        <v>85604177</v>
+      </c>
       <c r="G22" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1675236</v>
       </c>
       <c r="H22" s="23"/>
     </row>
@@ -2551,27 +2410,45 @@
       <c r="B23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
       <c r="G23" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="10">
+        <v>34969</v>
+      </c>
+      <c r="D24" s="10">
+        <v>34969</v>
+      </c>
+      <c r="E24" s="10">
+        <v>27871</v>
+      </c>
+      <c r="F24" s="11">
+        <v>27871</v>
+      </c>
       <c r="G24" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-7098</v>
       </c>
       <c r="H24" s="23"/>
     </row>
@@ -2579,13 +2456,21 @@
       <c r="B25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
+      <c r="C25" s="10">
+        <v>23442</v>
+      </c>
+      <c r="D25" s="10">
+        <v>23442</v>
+      </c>
+      <c r="E25" s="10">
+        <v>20244</v>
+      </c>
+      <c r="F25" s="11">
+        <v>20244</v>
+      </c>
       <c r="G25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-3198</v>
       </c>
       <c r="H25" s="23"/>
     </row>
@@ -2593,13 +2478,21 @@
       <c r="B26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
+      <c r="C26" s="10">
+        <v>1272414</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1272414</v>
+      </c>
+      <c r="E26" s="10">
+        <v>26803</v>
+      </c>
+      <c r="F26" s="11">
+        <v>26803</v>
+      </c>
       <c r="G26" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1245611</v>
       </c>
       <c r="H26" s="23"/>
     </row>
@@ -2609,23 +2502,23 @@
       </c>
       <c r="C27" s="17">
         <f>SUM(C17:C26)</f>
-        <v>0</v>
+        <v>88747020</v>
       </c>
       <c r="D27" s="17">
         <f>SUM(D17:D26)</f>
-        <v>0</v>
+        <v>88747020</v>
       </c>
       <c r="E27" s="17">
         <f>SUM(E17:E26)</f>
-        <v>0</v>
+        <v>85818408</v>
       </c>
       <c r="F27" s="18">
         <f>SUM(F17:F26)</f>
-        <v>0</v>
+        <v>85818408</v>
       </c>
       <c r="G27" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2928612</v>
       </c>
       <c r="H27" s="24"/>
     </row>
@@ -2645,7 +2538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -2662,12 +2555,12 @@
   <sheetData>
     <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="1"/>
       <c r="H2" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -2677,27 +2570,27 @@
     </row>
     <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="39">
         <v>2018</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39">
         <v>2019</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>26</v>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="35"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="19" t="s">
         <v>2</v>
       </c>
@@ -2710,21 +2603,29 @@
       <c r="F5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="6">
+        <v>130129781</v>
+      </c>
+      <c r="D6" s="6">
+        <v>129689781</v>
+      </c>
+      <c r="E6" s="6">
+        <v>132882000</v>
+      </c>
+      <c r="F6" s="7">
+        <v>132418000</v>
+      </c>
       <c r="G6" s="28">
         <f>F6-D6</f>
-        <v>0</v>
+        <v>2728219</v>
       </c>
       <c r="H6" s="22"/>
     </row>
@@ -2733,13 +2634,21 @@
       <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="8">
+        <v>10502868559</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10500637559</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10963292000</v>
+      </c>
+      <c r="F7" s="9">
+        <v>10939083000</v>
+      </c>
       <c r="G7" s="29">
         <f t="shared" ref="G7:G27" si="0">F7-D7</f>
-        <v>0</v>
+        <v>438445441</v>
       </c>
       <c r="H7" s="23"/>
     </row>
@@ -2748,13 +2657,21 @@
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="C8" s="8">
+        <v>5781937160</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5938798160</v>
+      </c>
+      <c r="E8" s="8">
+        <v>7097228000</v>
+      </c>
+      <c r="F8" s="9">
+        <v>6965760000</v>
+      </c>
       <c r="G8" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1026961840</v>
       </c>
       <c r="H8" s="23"/>
     </row>
@@ -2763,13 +2680,21 @@
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="C9" s="8">
+        <v>542927273</v>
+      </c>
+      <c r="D9" s="8">
+        <v>539007273</v>
+      </c>
+      <c r="E9" s="8">
+        <v>566060000</v>
+      </c>
+      <c r="F9" s="9">
+        <v>551334400</v>
+      </c>
       <c r="G9" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12327127</v>
       </c>
       <c r="H9" s="23"/>
     </row>
@@ -2778,13 +2703,21 @@
       <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="8">
+        <v>63838661485</v>
+      </c>
+      <c r="D10" s="8">
+        <v>63872934485</v>
+      </c>
+      <c r="E10" s="8">
+        <v>70743520000</v>
+      </c>
+      <c r="F10" s="9">
+        <v>70448553000</v>
+      </c>
       <c r="G10" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6575618515</v>
       </c>
       <c r="H10" s="23"/>
     </row>
@@ -2793,13 +2726,21 @@
       <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="8">
+        <v>29635188477</v>
+      </c>
+      <c r="D11" s="8">
+        <v>29637827477</v>
+      </c>
+      <c r="E11" s="8">
+        <v>31323761000</v>
+      </c>
+      <c r="F11" s="9">
+        <v>31323761000</v>
+      </c>
       <c r="G11" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1685933523</v>
       </c>
       <c r="H11" s="23"/>
     </row>
@@ -2808,13 +2749,21 @@
       <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="8">
+        <v>598444545</v>
+      </c>
+      <c r="D12" s="8">
+        <v>605160545</v>
+      </c>
+      <c r="E12" s="8">
+        <v>638084000</v>
+      </c>
+      <c r="F12" s="9">
+        <v>640904000</v>
+      </c>
       <c r="G12" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35743455</v>
       </c>
       <c r="H12" s="23"/>
     </row>
@@ -2822,13 +2771,21 @@
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+      <c r="C13" s="10">
+        <v>14556675912</v>
+      </c>
+      <c r="D13" s="10">
+        <v>14702583912</v>
+      </c>
+      <c r="E13" s="10">
+        <v>15770716000</v>
+      </c>
+      <c r="F13" s="11">
+        <v>15979064500</v>
+      </c>
       <c r="G13" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1276480588</v>
       </c>
       <c r="H13" s="23"/>
     </row>
@@ -2836,13 +2793,21 @@
       <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="10">
+        <v>1552089824</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1552423824</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1628937000</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1622520000</v>
+      </c>
       <c r="G14" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70096176</v>
       </c>
       <c r="H14" s="23"/>
     </row>
@@ -2850,13 +2815,21 @@
       <c r="B15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
+      <c r="C15" s="10">
+        <v>38623158695</v>
+      </c>
+      <c r="D15" s="10">
+        <v>37477610695</v>
+      </c>
+      <c r="E15" s="10">
+        <v>44492602000</v>
+      </c>
+      <c r="F15" s="11">
+        <v>44865455000</v>
+      </c>
       <c r="G15" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7387844305</v>
       </c>
       <c r="H15" s="23"/>
     </row>
@@ -2866,23 +2839,23 @@
       </c>
       <c r="C16" s="17">
         <f>SUM(C6:C15)</f>
-        <v>0</v>
+        <v>165762081711</v>
       </c>
       <c r="D16" s="17">
         <f>SUM(D6:D15)</f>
-        <v>0</v>
+        <v>164956673711</v>
       </c>
       <c r="E16" s="17">
         <f>SUM(E6:E15)</f>
-        <v>0</v>
+        <v>183357082000</v>
       </c>
       <c r="F16" s="18">
         <f>SUM(F6:F15)</f>
-        <v>0</v>
+        <v>183468852900</v>
       </c>
       <c r="G16" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18512179189</v>
       </c>
       <c r="H16" s="24"/>
     </row>
@@ -2890,27 +2863,45 @@
       <c r="B17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
       <c r="G17" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="C18" s="8">
+        <v>81262819</v>
+      </c>
+      <c r="D18" s="8">
+        <v>81262819</v>
+      </c>
+      <c r="E18" s="8">
+        <v>85099000</v>
+      </c>
+      <c r="F18" s="9">
+        <v>85099000</v>
+      </c>
       <c r="G18" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3836181</v>
       </c>
       <c r="H18" s="23"/>
     </row>
@@ -2918,13 +2909,21 @@
       <c r="B19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="8">
+        <v>35565534000</v>
+      </c>
+      <c r="D19" s="8">
+        <v>35585534000</v>
+      </c>
+      <c r="E19" s="8">
+        <v>35402874000</v>
+      </c>
+      <c r="F19" s="9">
+        <v>34666162000</v>
+      </c>
       <c r="G19" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-919372000</v>
       </c>
       <c r="H19" s="23"/>
     </row>
@@ -2932,27 +2931,45 @@
       <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
       <c r="G20" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="C21" s="8">
+        <v>16900439000</v>
+      </c>
+      <c r="D21" s="8">
+        <v>16910439000</v>
+      </c>
+      <c r="E21" s="8">
+        <v>17061109000</v>
+      </c>
+      <c r="F21" s="9">
+        <v>17139024000</v>
+      </c>
       <c r="G21" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>228585000</v>
       </c>
       <c r="H21" s="23"/>
     </row>
@@ -2960,13 +2977,21 @@
       <c r="B22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="8">
+        <v>5787273000</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5781479000</v>
+      </c>
+      <c r="E22" s="8">
+        <v>5568523000</v>
+      </c>
+      <c r="F22" s="9">
+        <v>5568559000</v>
+      </c>
       <c r="G22" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-212920000</v>
       </c>
       <c r="H22" s="23"/>
     </row>
@@ -2974,27 +2999,45 @@
       <c r="B23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
       <c r="G23" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="10">
+        <v>256669332000</v>
+      </c>
+      <c r="D24" s="10">
+        <v>256105251000</v>
+      </c>
+      <c r="E24" s="10">
+        <v>281200483000</v>
+      </c>
+      <c r="F24" s="11">
+        <v>283535757000</v>
+      </c>
       <c r="G24" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27430506000</v>
       </c>
       <c r="H24" s="23"/>
     </row>
@@ -3002,13 +3045,21 @@
       <c r="B25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
+      <c r="C25" s="10">
+        <v>422609685</v>
+      </c>
+      <c r="D25" s="10">
+        <v>422609685</v>
+      </c>
+      <c r="E25" s="10">
+        <v>389241000</v>
+      </c>
+      <c r="F25" s="11">
+        <v>389241000</v>
+      </c>
       <c r="G25" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-33368685</v>
       </c>
       <c r="H25" s="23"/>
     </row>
@@ -3016,13 +3067,21 @@
       <c r="B26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
+      <c r="C26" s="10">
+        <v>122937135396</v>
+      </c>
+      <c r="D26" s="10">
+        <v>122994335396</v>
+      </c>
+      <c r="E26" s="10">
+        <v>124287106000</v>
+      </c>
+      <c r="F26" s="11">
+        <v>124324649000</v>
+      </c>
       <c r="G26" s="29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1330313604</v>
       </c>
       <c r="H26" s="23"/>
     </row>
@@ -3032,23 +3091,23 @@
       </c>
       <c r="C27" s="17">
         <f>SUM(C17:C26)</f>
-        <v>0</v>
+        <v>438363585900</v>
       </c>
       <c r="D27" s="17">
         <f>SUM(D17:D26)</f>
-        <v>0</v>
+        <v>437880910900</v>
       </c>
       <c r="E27" s="17">
         <f>SUM(E17:E26)</f>
-        <v>0</v>
+        <v>463994435000</v>
       </c>
       <c r="F27" s="18">
         <f>SUM(F17:F26)</f>
-        <v>0</v>
+        <v>465708491000</v>
       </c>
       <c r="G27" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27827580100</v>
       </c>
       <c r="H27" s="24"/>
     </row>
@@ -3068,7 +3127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3085,13 +3144,13 @@
   <sheetData>
     <row r="2" spans="1:10" ht="32.4" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
       <c r="J2" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -3102,31 +3161,31 @@
     </row>
     <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="39">
         <v>2018</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39">
         <v>2019</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>26</v>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="35"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>2</v>
@@ -3135,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>2</v>
@@ -3143,23 +3202,35 @@
       <c r="H5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="34"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="6">
+        <v>125186906</v>
+      </c>
+      <c r="D6" s="6">
+        <v>130129781</v>
+      </c>
+      <c r="E6" s="6">
+        <v>129689781</v>
+      </c>
+      <c r="F6" s="6">
+        <v>129689781</v>
+      </c>
+      <c r="G6" s="7">
+        <v>132882000</v>
+      </c>
+      <c r="H6" s="7">
+        <v>132418000</v>
+      </c>
       <c r="I6" s="25">
         <f t="shared" ref="I6:I27" si="0">H6-E6</f>
-        <v>0</v>
+        <v>2728219</v>
       </c>
       <c r="J6" s="22"/>
     </row>
@@ -3168,15 +3239,27 @@
       <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="C7" s="8">
+        <v>10027519111</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10464247559</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10459184559</v>
+      </c>
+      <c r="F7" s="8">
+        <v>10459184559</v>
+      </c>
+      <c r="G7" s="9">
+        <v>10919458000</v>
+      </c>
+      <c r="H7" s="9">
+        <v>10895249000</v>
+      </c>
       <c r="I7" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>436064441</v>
       </c>
       <c r="J7" s="23"/>
     </row>
@@ -3185,15 +3268,27 @@
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="C8" s="8">
+        <v>2048863920</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5696155160</v>
+      </c>
+      <c r="E8" s="8">
+        <v>5833016160</v>
+      </c>
+      <c r="F8" s="8">
+        <v>5833016160</v>
+      </c>
+      <c r="G8" s="9">
+        <v>6941446000</v>
+      </c>
+      <c r="H8" s="9">
+        <v>6809978000</v>
+      </c>
       <c r="I8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>976961840</v>
       </c>
       <c r="J8" s="23"/>
     </row>
@@ -3202,15 +3297,27 @@
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="C9" s="8">
+        <v>512859434</v>
+      </c>
+      <c r="D9" s="8">
+        <v>542927273</v>
+      </c>
+      <c r="E9" s="8">
+        <v>539007273</v>
+      </c>
+      <c r="F9" s="8">
+        <v>539007273</v>
+      </c>
+      <c r="G9" s="9">
+        <v>566060000</v>
+      </c>
+      <c r="H9" s="9">
+        <v>551334400</v>
+      </c>
       <c r="I9" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12327127</v>
       </c>
       <c r="J9" s="23"/>
     </row>
@@ -3219,15 +3326,27 @@
       <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="C10" s="8">
+        <v>52237733743</v>
+      </c>
+      <c r="D10" s="8">
+        <v>59129707485</v>
+      </c>
+      <c r="E10" s="8">
+        <v>59163980485</v>
+      </c>
+      <c r="F10" s="8">
+        <v>59163980485</v>
+      </c>
+      <c r="G10" s="9">
+        <v>66103116000</v>
+      </c>
+      <c r="H10" s="9">
+        <v>65736734000</v>
+      </c>
       <c r="I10" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6572753515</v>
       </c>
       <c r="J10" s="23"/>
     </row>
@@ -3236,15 +3355,27 @@
       <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="C11" s="8">
+        <v>25422165001</v>
+      </c>
+      <c r="D11" s="8">
+        <v>26817334477</v>
+      </c>
+      <c r="E11" s="8">
+        <v>26819973477</v>
+      </c>
+      <c r="F11" s="8">
+        <v>26819973477</v>
+      </c>
+      <c r="G11" s="9">
+        <v>28383235000</v>
+      </c>
+      <c r="H11" s="9">
+        <v>28383235000</v>
+      </c>
       <c r="I11" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1563261523</v>
       </c>
       <c r="J11" s="23"/>
     </row>
@@ -3253,15 +3384,27 @@
       <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="C12" s="8">
+        <v>574269038</v>
+      </c>
+      <c r="D12" s="8">
+        <v>598444545</v>
+      </c>
+      <c r="E12" s="8">
+        <v>605160545</v>
+      </c>
+      <c r="F12" s="8">
+        <v>605160545</v>
+      </c>
+      <c r="G12" s="9">
+        <v>638084000</v>
+      </c>
+      <c r="H12" s="9">
+        <v>640904000</v>
+      </c>
       <c r="I12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35743455</v>
       </c>
       <c r="J12" s="23"/>
     </row>
@@ -3269,15 +3412,27 @@
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="C13" s="10">
+        <v>3437716438</v>
+      </c>
+      <c r="D13" s="10">
+        <v>3443094912</v>
+      </c>
+      <c r="E13" s="10">
+        <v>3440147912</v>
+      </c>
+      <c r="F13" s="10">
+        <v>3440147912</v>
+      </c>
+      <c r="G13" s="11">
+        <v>3477585000</v>
+      </c>
+      <c r="H13" s="11">
+        <v>3462313500</v>
+      </c>
       <c r="I13" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22165588</v>
       </c>
       <c r="J13" s="23"/>
     </row>
@@ -3285,15 +3440,27 @@
       <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="C14" s="10">
+        <v>1481729118</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1552089824</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1552423824</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1552423824</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1628937000</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1622520000</v>
+      </c>
       <c r="I14" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70096176</v>
       </c>
       <c r="J14" s="23"/>
     </row>
@@ -3301,15 +3468,27 @@
       <c r="B15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="C15" s="10">
+        <v>33458879280</v>
+      </c>
+      <c r="D15" s="10">
+        <v>38307875695</v>
+      </c>
+      <c r="E15" s="10">
+        <v>37159815695</v>
+      </c>
+      <c r="F15" s="10">
+        <v>37159815695</v>
+      </c>
+      <c r="G15" s="11">
+        <v>44165277000</v>
+      </c>
+      <c r="H15" s="11">
+        <v>44536213000</v>
+      </c>
       <c r="I15" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7376397305</v>
       </c>
       <c r="J15" s="23"/>
     </row>
@@ -3319,31 +3498,31 @@
       </c>
       <c r="C16" s="17">
         <f t="shared" ref="C16:H16" si="1">SUM(C6:C15)</f>
-        <v>0</v>
+        <v>129326921989</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>146682006711</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>145702399711</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>145702399711</v>
       </c>
       <c r="G16" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>162956080000</v>
       </c>
       <c r="H16" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>162770898900</v>
       </c>
       <c r="I16" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17068499189</v>
       </c>
       <c r="J16" s="24"/>
     </row>
@@ -3351,31 +3530,57 @@
       <c r="B17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
       <c r="I17" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="C18" s="8">
+        <v>73225729</v>
+      </c>
+      <c r="D18" s="8">
+        <v>76992819</v>
+      </c>
+      <c r="E18" s="8">
+        <v>76992819</v>
+      </c>
+      <c r="F18" s="8">
+        <v>76992819</v>
+      </c>
+      <c r="G18" s="9">
+        <v>80413000</v>
+      </c>
+      <c r="H18" s="9">
+        <v>80413000</v>
+      </c>
       <c r="I18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3420181</v>
       </c>
       <c r="J18" s="23"/>
     </row>
@@ -3383,15 +3588,27 @@
       <c r="B19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="C19" s="8">
+        <v>16212564000</v>
+      </c>
+      <c r="D19" s="8">
+        <v>18061890000</v>
+      </c>
+      <c r="E19" s="8">
+        <v>17970255000</v>
+      </c>
+      <c r="F19" s="8">
+        <v>17970255000</v>
+      </c>
+      <c r="G19" s="9">
+        <v>20180958000</v>
+      </c>
+      <c r="H19" s="9">
+        <v>19906325000</v>
+      </c>
       <c r="I19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1936070000</v>
       </c>
       <c r="J19" s="23"/>
     </row>
@@ -3399,31 +3616,57 @@
       <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
       <c r="I20" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="C21" s="8">
+        <v>9393916000</v>
+      </c>
+      <c r="D21" s="8">
+        <v>9058257000</v>
+      </c>
+      <c r="E21" s="8">
+        <v>9068257000</v>
+      </c>
+      <c r="F21" s="8">
+        <v>9068257000</v>
+      </c>
+      <c r="G21" s="9">
+        <v>9102046000</v>
+      </c>
+      <c r="H21" s="9">
+        <v>9179579000</v>
+      </c>
       <c r="I21" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>111322000</v>
       </c>
       <c r="J21" s="23"/>
     </row>
@@ -3431,15 +3674,27 @@
       <c r="B22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="C22" s="8">
+        <v>4263592000</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4525033000</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4482964000</v>
+      </c>
+      <c r="F22" s="8">
+        <v>4482964000</v>
+      </c>
+      <c r="G22" s="9">
+        <v>4728141000</v>
+      </c>
+      <c r="H22" s="9">
+        <v>4725151000</v>
+      </c>
       <c r="I22" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>242187000</v>
       </c>
       <c r="J22" s="23"/>
     </row>
@@ -3447,31 +3702,57 @@
       <c r="B23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
       <c r="I23" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="23"/>
+      <c r="J23" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="C24" s="10">
+        <v>16872765000</v>
+      </c>
+      <c r="D24" s="10">
+        <v>18018318000</v>
+      </c>
+      <c r="E24" s="10">
+        <v>17362475000</v>
+      </c>
+      <c r="F24" s="10">
+        <v>17362475000</v>
+      </c>
+      <c r="G24" s="11">
+        <v>18478789000</v>
+      </c>
+      <c r="H24" s="11">
+        <v>17600031000</v>
+      </c>
       <c r="I24" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>237556000</v>
       </c>
       <c r="J24" s="23"/>
     </row>
@@ -3479,15 +3760,27 @@
       <c r="B25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="C25" s="10">
+        <v>258961773</v>
+      </c>
+      <c r="D25" s="10">
+        <v>270424685</v>
+      </c>
+      <c r="E25" s="10">
+        <v>271924685</v>
+      </c>
+      <c r="F25" s="10">
+        <v>271924685</v>
+      </c>
+      <c r="G25" s="11">
+        <v>283299000</v>
+      </c>
+      <c r="H25" s="11">
+        <v>282876000</v>
+      </c>
       <c r="I25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10951315</v>
       </c>
       <c r="J25" s="23"/>
     </row>
@@ -3495,15 +3788,27 @@
       <c r="B26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="C26" s="10">
+        <v>24203893539</v>
+      </c>
+      <c r="D26" s="10">
+        <v>25933718396</v>
+      </c>
+      <c r="E26" s="10">
+        <v>25995614396</v>
+      </c>
+      <c r="F26" s="10">
+        <v>25995614396</v>
+      </c>
+      <c r="G26" s="11">
+        <v>28210548000</v>
+      </c>
+      <c r="H26" s="11">
+        <v>27978560000</v>
+      </c>
       <c r="I26" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1982945604</v>
       </c>
       <c r="J26" s="23"/>
     </row>
@@ -3513,31 +3818,31 @@
       </c>
       <c r="C27" s="17">
         <f t="shared" ref="C27:H27" si="2">SUM(C17:C26)</f>
-        <v>0</v>
+        <v>71278918041</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>75944633900</v>
       </c>
       <c r="E27" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>75228482900</v>
       </c>
       <c r="F27" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>75228482900</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>81064194000</v>
       </c>
       <c r="H27" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>79752935000</v>
       </c>
       <c r="I27" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4524452100</v>
       </c>
       <c r="J27" s="24"/>
     </row>
@@ -3557,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3574,13 +3879,13 @@
   <sheetData>
     <row r="2" spans="1:10" ht="32.4" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
       <c r="J2" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
@@ -3591,64 +3896,76 @@
     </row>
     <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="39">
         <v>2018</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39">
         <v>2019</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>26</v>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
-      <c r="B5" s="35"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="34"/>
+        <v>21</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="6">
+        <v>129689781</v>
+      </c>
+      <c r="D6" s="6">
+        <v>129689781</v>
+      </c>
+      <c r="E6" s="6">
+        <v>129689781</v>
+      </c>
+      <c r="F6" s="6">
+        <v>132418000</v>
+      </c>
+      <c r="G6" s="7">
+        <v>132418000</v>
+      </c>
+      <c r="H6" s="7">
+        <v>132418000</v>
+      </c>
       <c r="I6" s="25">
         <f t="shared" ref="I6:I27" si="0">H6-E6</f>
-        <v>0</v>
+        <v>2728219</v>
       </c>
       <c r="J6" s="22"/>
     </row>
@@ -3657,15 +3974,27 @@
       <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="C7" s="8">
+        <v>10500637559</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10500637559</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10500637559</v>
+      </c>
+      <c r="F7" s="8">
+        <v>10939083000</v>
+      </c>
+      <c r="G7" s="9">
+        <v>10949106000</v>
+      </c>
+      <c r="H7" s="9">
+        <v>10947082000</v>
+      </c>
       <c r="I7" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>446444441</v>
       </c>
       <c r="J7" s="23"/>
     </row>
@@ -3674,15 +4003,27 @@
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="C8" s="8">
+        <v>5938798160</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5986098160</v>
+      </c>
+      <c r="E8" s="8">
+        <v>6002778160</v>
+      </c>
+      <c r="F8" s="8">
+        <v>6965760000</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7001607000</v>
+      </c>
+      <c r="H8" s="9">
+        <v>6993037000</v>
+      </c>
       <c r="I8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>990258840</v>
       </c>
       <c r="J8" s="23"/>
     </row>
@@ -3691,15 +4032,27 @@
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="C9" s="8">
+        <v>539007273</v>
+      </c>
+      <c r="D9" s="8">
+        <v>539007273</v>
+      </c>
+      <c r="E9" s="8">
+        <v>539007273</v>
+      </c>
+      <c r="F9" s="8">
+        <v>551334400</v>
+      </c>
+      <c r="G9" s="9">
+        <v>551334400</v>
+      </c>
+      <c r="H9" s="9">
+        <v>551334400</v>
+      </c>
       <c r="I9" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12327127</v>
       </c>
       <c r="J9" s="23"/>
     </row>
@@ -3708,15 +4061,27 @@
       <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="C10" s="8">
+        <v>63872934485</v>
+      </c>
+      <c r="D10" s="8">
+        <v>64022248485</v>
+      </c>
+      <c r="E10" s="8">
+        <v>64027248485</v>
+      </c>
+      <c r="F10" s="8">
+        <v>70448553000</v>
+      </c>
+      <c r="G10" s="9">
+        <v>70547825000</v>
+      </c>
+      <c r="H10" s="9">
+        <v>70537248000</v>
+      </c>
       <c r="I10" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6509999515</v>
       </c>
       <c r="J10" s="23"/>
     </row>
@@ -3725,15 +4090,27 @@
       <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="C11" s="8">
+        <v>29637827477</v>
+      </c>
+      <c r="D11" s="8">
+        <v>29637827477</v>
+      </c>
+      <c r="E11" s="8">
+        <v>29637827477</v>
+      </c>
+      <c r="F11" s="8">
+        <v>31323761000</v>
+      </c>
+      <c r="G11" s="9">
+        <v>31323761000</v>
+      </c>
+      <c r="H11" s="9">
+        <v>31323761000</v>
+      </c>
       <c r="I11" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1685933523</v>
       </c>
       <c r="J11" s="23"/>
     </row>
@@ -3742,15 +4119,27 @@
       <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="C12" s="8">
+        <v>605160545</v>
+      </c>
+      <c r="D12" s="8">
+        <v>605160545</v>
+      </c>
+      <c r="E12" s="8">
+        <v>605160545</v>
+      </c>
+      <c r="F12" s="8">
+        <v>640904000</v>
+      </c>
+      <c r="G12" s="9">
+        <v>640904000</v>
+      </c>
+      <c r="H12" s="9">
+        <v>640904000</v>
+      </c>
       <c r="I12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35743455</v>
       </c>
       <c r="J12" s="23"/>
     </row>
@@ -3758,15 +4147,27 @@
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="C13" s="10">
+        <v>14702583912</v>
+      </c>
+      <c r="D13" s="10">
+        <v>15539988912</v>
+      </c>
+      <c r="E13" s="10">
+        <v>15418138912</v>
+      </c>
+      <c r="F13" s="10">
+        <v>15979064500</v>
+      </c>
+      <c r="G13" s="11">
+        <v>16126656500</v>
+      </c>
+      <c r="H13" s="11">
+        <v>16102500500</v>
+      </c>
       <c r="I13" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>684361588</v>
       </c>
       <c r="J13" s="23"/>
     </row>
@@ -3774,15 +4175,27 @@
       <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="C14" s="10">
+        <v>1552423824</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1552423824</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1552423824</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1622520000</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1622520000</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1622520000</v>
+      </c>
       <c r="I14" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70096176</v>
       </c>
       <c r="J14" s="23"/>
     </row>
@@ -3790,15 +4203,27 @@
       <c r="B15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="C15" s="10">
+        <v>37477610695</v>
+      </c>
+      <c r="D15" s="10">
+        <v>37477610695</v>
+      </c>
+      <c r="E15" s="10">
+        <v>37609146695</v>
+      </c>
+      <c r="F15" s="10">
+        <v>44865455000</v>
+      </c>
+      <c r="G15" s="11">
+        <v>45214032000</v>
+      </c>
+      <c r="H15" s="11">
+        <v>45139252000</v>
+      </c>
       <c r="I15" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7530105305</v>
       </c>
       <c r="J15" s="23"/>
     </row>
@@ -3808,31 +4233,31 @@
       </c>
       <c r="C16" s="17">
         <f t="shared" ref="C16:H16" si="1">SUM(C6:C15)</f>
-        <v>0</v>
+        <v>164956673711</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>165990692711</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>166022058711</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>183468852900</v>
       </c>
       <c r="G16" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>184110163900</v>
       </c>
       <c r="H16" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>183990056900</v>
       </c>
       <c r="I16" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17967998189</v>
       </c>
       <c r="J16" s="24"/>
     </row>
@@ -3840,31 +4265,57 @@
       <c r="B17" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
       <c r="I17" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="C18" s="8">
+        <v>81262819</v>
+      </c>
+      <c r="D18" s="8">
+        <v>81262819</v>
+      </c>
+      <c r="E18" s="8">
+        <v>81262819</v>
+      </c>
+      <c r="F18" s="8">
+        <v>85099000</v>
+      </c>
+      <c r="G18" s="9">
+        <v>85099000</v>
+      </c>
+      <c r="H18" s="9">
+        <v>85099000</v>
+      </c>
       <c r="I18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3836181</v>
       </c>
       <c r="J18" s="23"/>
     </row>
@@ -3872,15 +4323,27 @@
       <c r="B19" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="C19" s="8">
+        <v>163422000</v>
+      </c>
+      <c r="D19" s="8">
+        <v>163422000</v>
+      </c>
+      <c r="E19" s="8">
+        <v>163422000</v>
+      </c>
+      <c r="F19" s="8">
+        <v>174485000</v>
+      </c>
+      <c r="G19" s="9">
+        <v>207823000</v>
+      </c>
+      <c r="H19" s="9">
+        <v>207823000</v>
+      </c>
       <c r="I19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44401000</v>
       </c>
       <c r="J19" s="23"/>
     </row>
@@ -3888,31 +4351,57 @@
       <c r="B20" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
       <c r="I20" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="C21" s="8">
+        <v>4676279000</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4684279000</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4684279000</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4499240000</v>
+      </c>
+      <c r="G21" s="9">
+        <v>4499240000</v>
+      </c>
+      <c r="H21" s="9">
+        <v>4499240000</v>
+      </c>
       <c r="I21" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-185039000</v>
       </c>
       <c r="J21" s="23"/>
     </row>
@@ -3920,15 +4409,27 @@
       <c r="B22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="C22" s="8">
+        <v>1131465000</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1131465000</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1131465000</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1285459000</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1285459000</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1285459000</v>
+      </c>
       <c r="I22" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>153994000</v>
       </c>
       <c r="J22" s="23"/>
     </row>
@@ -3936,47 +4437,87 @@
       <c r="B23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
       <c r="I23" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="23"/>
+      <c r="J23" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="C24" s="10">
+        <v>941000</v>
+      </c>
+      <c r="D24" s="10">
+        <v>941000</v>
+      </c>
+      <c r="E24" s="10">
+        <v>941000</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
       <c r="I24" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="23"/>
+        <v>-941000</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="C25" s="10">
+        <v>364273685</v>
+      </c>
+      <c r="D25" s="10">
+        <v>364273685</v>
+      </c>
+      <c r="E25" s="10">
+        <v>364273685</v>
+      </c>
+      <c r="F25" s="10">
+        <v>314674000</v>
+      </c>
+      <c r="G25" s="11">
+        <v>314674000</v>
+      </c>
+      <c r="H25" s="11">
+        <v>314674000</v>
+      </c>
       <c r="I25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-49599685</v>
       </c>
       <c r="J25" s="23"/>
     </row>
@@ -3984,15 +4525,27 @@
       <c r="B26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="C26" s="10">
+        <v>505658396</v>
+      </c>
+      <c r="D26" s="10">
+        <v>505658396</v>
+      </c>
+      <c r="E26" s="10">
+        <v>505658396</v>
+      </c>
+      <c r="F26" s="10">
+        <v>562143000</v>
+      </c>
+      <c r="G26" s="11">
+        <v>562143000</v>
+      </c>
+      <c r="H26" s="11">
+        <v>562143000</v>
+      </c>
       <c r="I26" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56484604</v>
       </c>
       <c r="J26" s="23"/>
     </row>
@@ -4002,31 +4555,31 @@
       </c>
       <c r="C27" s="17">
         <f t="shared" ref="C27:H27" si="2">SUM(C17:C26)</f>
-        <v>0</v>
+        <v>6923301900</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6931301900</v>
       </c>
       <c r="E27" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6931301900</v>
       </c>
       <c r="F27" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6921100000</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6954438000</v>
       </c>
       <c r="H27" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6954438000</v>
       </c>
       <c r="I27" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23136100</v>
       </c>
       <c r="J27" s="24"/>
     </row>
@@ -4046,61 +4599,56 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571AB1FD-D7B6-437F-ACA2-0CE23C72B58C}">
+  <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:F26"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.8984375" customWidth="1"/>
-    <col min="2" max="3" width="15.69921875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="15.69921875" customWidth="1"/>
+    <col min="2" max="7" width="15.69921875" customWidth="1"/>
     <col min="8" max="8" width="50.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="2:8" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="33"/>
       <c r="H2" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="39">
         <v>2018</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39">
         <v>2019</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="35"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="39"/>
       <c r="C5" s="31" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>1</v>
@@ -4111,13 +4659,12 @@
       <c r="F5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="15" t="s">
-        <v>31</v>
+      <c r="G5" s="39"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="35" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="6">
         <v>130129781</v>
@@ -4137,9 +4684,8 @@
       </c>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8">
@@ -4160,9 +4706,8 @@
       </c>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="8">
@@ -4183,9 +4728,8 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="14" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="8">
@@ -4206,9 +4750,8 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="8">
@@ -4229,9 +4772,8 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="8">
@@ -4252,10 +4794,9 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="14" t="s">
-        <v>32</v>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="8">
         <v>598444545</v>
@@ -4275,9 +4816,9 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="13" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C13" s="10">
         <v>14556675912</v>
@@ -4297,7 +4838,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
@@ -4319,9 +4860,9 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="13" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C15" s="10">
         <v>38623158695</v>
@@ -4341,7 +4882,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="16" t="s">
         <v>5</v>
       </c>
@@ -4368,7 +4909,7 @@
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="35" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="6">
@@ -4387,10 +4928,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="8">
@@ -4412,7 +4955,7 @@
       <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="8">
@@ -4434,7 +4977,7 @@
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="8">
@@ -4453,10 +4996,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="8">
@@ -4478,8 +5023,8 @@
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="14" t="s">
-        <v>35</v>
+      <c r="B22" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="C22" s="8">
         <v>5787273000</v>
@@ -4500,8 +5045,8 @@
       <c r="H22" s="23"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="14" t="s">
-        <v>36</v>
+      <c r="B23" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -4519,7 +5064,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
@@ -4629,88 +5176,82 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F358B8C0-BAFF-4E21-B11E-24DF0E99A217}">
+  <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:H26"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.8984375" customWidth="1"/>
-    <col min="2" max="4" width="15.69921875" style="1" customWidth="1"/>
-    <col min="5" max="9" width="15.69921875" customWidth="1"/>
+    <col min="2" max="9" width="15.69921875" customWidth="1"/>
     <col min="10" max="10" width="50.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1"/>
+    <row r="2" spans="2:10" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="J2" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="39">
         <v>2018</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39">
         <v>2019</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="35"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="39"/>
       <c r="C5" s="20" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="34"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="15" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="35" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="6">
         <v>125186906</v>
@@ -4736,10 +5277,9 @@
       </c>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="14" t="s">
-        <v>48</v>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="8">
         <v>10027519111</v>
@@ -4765,10 +5305,9 @@
       </c>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="14" t="s">
-        <v>49</v>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="C8" s="8">
         <v>2048863920</v>
@@ -4794,10 +5333,9 @@
       </c>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="14" t="s">
-        <v>50</v>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="8">
         <v>512859434</v>
@@ -4823,10 +5361,9 @@
       </c>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="14" t="s">
-        <v>51</v>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="C10" s="8">
         <v>52237733743</v>
@@ -4852,10 +5389,9 @@
       </c>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="14" t="s">
-        <v>52</v>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="8">
         <v>25422165001</v>
@@ -4881,10 +5417,9 @@
       </c>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="14" t="s">
-        <v>53</v>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="8">
         <v>574269038</v>
@@ -4910,9 +5445,9 @@
       </c>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="13" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C13" s="10">
         <v>3437716438</v>
@@ -4938,9 +5473,9 @@
       </c>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="13" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C14" s="10">
         <v>1481729118</v>
@@ -4966,9 +5501,9 @@
       </c>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="13" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C15" s="10">
         <v>33458879280</v>
@@ -4994,9 +5529,9 @@
       </c>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="21" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C16" s="17">
         <f t="shared" ref="C16:H16" si="1">SUM(C6:C15)</f>
@@ -5029,8 +5564,8 @@
       <c r="J16" s="24"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="15" t="s">
-        <v>58</v>
+      <c r="B17" s="35" t="s">
+        <v>4</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -5054,11 +5589,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="14" t="s">
-        <v>59</v>
+      <c r="B18" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="C18" s="8">
         <v>73225729</v>
@@ -5085,7 +5622,7 @@
       <c r="J18" s="23"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="8">
@@ -5113,8 +5650,8 @@
       <c r="J19" s="23"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="14" t="s">
-        <v>60</v>
+      <c r="B20" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C20" s="8">
         <v>0</v>
@@ -5138,11 +5675,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="14" t="s">
-        <v>61</v>
+      <c r="B21" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="C21" s="8">
         <v>9393916000</v>
@@ -5169,8 +5708,8 @@
       <c r="J21" s="23"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="14" t="s">
-        <v>62</v>
+      <c r="B22" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="C22" s="8">
         <v>4263592000</v>
@@ -5197,7 +5736,7 @@
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="8">
@@ -5222,11 +5761,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="23"/>
+      <c r="J23" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C24" s="10">
         <v>16872765000</v>
@@ -5254,7 +5795,7 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="13" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="C25" s="10">
         <v>258961773</v>
@@ -5282,7 +5823,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C26" s="10">
         <v>24203893539</v>
@@ -5358,8 +5899,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5F0B68-0EA5-47BC-B75C-FD594D40478C}">
+  <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
@@ -5368,432 +5909,668 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.8984375" customWidth="1"/>
-    <col min="2" max="4" width="15.69921875" style="1" customWidth="1"/>
-    <col min="5" max="9" width="15.69921875" customWidth="1"/>
+    <col min="2" max="9" width="15.69921875" customWidth="1"/>
     <col min="10" max="10" width="50.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1"/>
+    <row r="2" spans="2:10" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="J2" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="39">
         <v>2018</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39">
         <v>2019</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="35"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="39"/>
       <c r="C5" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="I5" s="35"/>
-      <c r="J5" s="34"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="6">
+        <v>129689781</v>
+      </c>
+      <c r="D6" s="6">
+        <v>129689781</v>
+      </c>
+      <c r="E6" s="6">
+        <v>129689781</v>
+      </c>
+      <c r="F6" s="6">
+        <v>132418000</v>
+      </c>
+      <c r="G6" s="7">
+        <v>132418000</v>
+      </c>
+      <c r="H6" s="7">
+        <v>132418000</v>
+      </c>
       <c r="I6" s="25">
         <f t="shared" ref="I6:I27" si="0">H6-E6</f>
-        <v>0</v>
+        <v>2728219</v>
       </c>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>10500637559</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10500637559</v>
+      </c>
+      <c r="E7" s="8">
+        <v>10500637559</v>
+      </c>
+      <c r="F7" s="8">
+        <v>10939083000</v>
+      </c>
+      <c r="G7" s="9">
+        <v>10949106000</v>
+      </c>
+      <c r="H7" s="9">
+        <v>10947082000</v>
+      </c>
       <c r="I7" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>446444441</v>
       </c>
       <c r="J7" s="23"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5938798160</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5986098160</v>
+      </c>
+      <c r="E8" s="8">
+        <v>6002778160</v>
+      </c>
+      <c r="F8" s="8">
+        <v>6965760000</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7001607000</v>
+      </c>
+      <c r="H8" s="9">
+        <v>6993037000</v>
+      </c>
       <c r="I8" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>990258840</v>
       </c>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8">
+        <v>539007273</v>
+      </c>
+      <c r="D9" s="8">
+        <v>539007273</v>
+      </c>
+      <c r="E9" s="8">
+        <v>539007273</v>
+      </c>
+      <c r="F9" s="8">
+        <v>551334400</v>
+      </c>
+      <c r="G9" s="9">
+        <v>551334400</v>
+      </c>
+      <c r="H9" s="9">
+        <v>551334400</v>
+      </c>
       <c r="I9" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12327127</v>
       </c>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8">
+        <v>63872934485</v>
+      </c>
+      <c r="D10" s="8">
+        <v>64022248485</v>
+      </c>
+      <c r="E10" s="8">
+        <v>64027248485</v>
+      </c>
+      <c r="F10" s="8">
+        <v>70448553000</v>
+      </c>
+      <c r="G10" s="9">
+        <v>70547825000</v>
+      </c>
+      <c r="H10" s="9">
+        <v>70537248000</v>
+      </c>
       <c r="I10" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6509999515</v>
       </c>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="C11" s="8">
+        <v>29637827477</v>
+      </c>
+      <c r="D11" s="8">
+        <v>29637827477</v>
+      </c>
+      <c r="E11" s="8">
+        <v>29637827477</v>
+      </c>
+      <c r="F11" s="8">
+        <v>31323761000</v>
+      </c>
+      <c r="G11" s="9">
+        <v>31323761000</v>
+      </c>
+      <c r="H11" s="9">
+        <v>31323761000</v>
+      </c>
       <c r="I11" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1685933523</v>
       </c>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>605160545</v>
+      </c>
+      <c r="D12" s="8">
+        <v>605160545</v>
+      </c>
+      <c r="E12" s="8">
+        <v>605160545</v>
+      </c>
+      <c r="F12" s="8">
+        <v>640904000</v>
+      </c>
+      <c r="G12" s="9">
+        <v>640904000</v>
+      </c>
+      <c r="H12" s="9">
+        <v>640904000</v>
+      </c>
       <c r="I12" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35743455</v>
       </c>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="C13" s="10">
+        <v>14702583912</v>
+      </c>
+      <c r="D13" s="10">
+        <v>15539988912</v>
+      </c>
+      <c r="E13" s="10">
+        <v>15418138912</v>
+      </c>
+      <c r="F13" s="10">
+        <v>15979064500</v>
+      </c>
+      <c r="G13" s="11">
+        <v>16126656500</v>
+      </c>
+      <c r="H13" s="11">
+        <v>16102500500</v>
+      </c>
       <c r="I13" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>684361588</v>
       </c>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="C14" s="10">
+        <v>1552423824</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1552423824</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1552423824</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1622520000</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1622520000</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1622520000</v>
+      </c>
       <c r="I14" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70096176</v>
       </c>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="C15" s="10">
+        <v>37477610695</v>
+      </c>
+      <c r="D15" s="10">
+        <v>37477610695</v>
+      </c>
+      <c r="E15" s="10">
+        <v>37609146695</v>
+      </c>
+      <c r="F15" s="10">
+        <v>44865455000</v>
+      </c>
+      <c r="G15" s="11">
+        <v>45214032000</v>
+      </c>
+      <c r="H15" s="11">
+        <v>45139252000</v>
+      </c>
       <c r="I15" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7530105305</v>
       </c>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="17">
         <f t="shared" ref="C16:H16" si="1">SUM(C6:C15)</f>
-        <v>0</v>
+        <v>164956673711</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>165990692711</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>166022058711</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>183468852900</v>
       </c>
       <c r="G16" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>184110163900</v>
       </c>
       <c r="H16" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>183990056900</v>
       </c>
       <c r="I16" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17967998189</v>
       </c>
       <c r="J16" s="24"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
       <c r="I17" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="23"/>
+      <c r="J17" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="C18" s="8">
+        <v>81262819</v>
+      </c>
+      <c r="D18" s="8">
+        <v>81262819</v>
+      </c>
+      <c r="E18" s="8">
+        <v>81262819</v>
+      </c>
+      <c r="F18" s="8">
+        <v>85099000</v>
+      </c>
+      <c r="G18" s="9">
+        <v>85099000</v>
+      </c>
+      <c r="H18" s="9">
+        <v>85099000</v>
+      </c>
       <c r="I18" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3836181</v>
       </c>
       <c r="J18" s="23"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="C19" s="8">
+        <v>163422000</v>
+      </c>
+      <c r="D19" s="8">
+        <v>163422000</v>
+      </c>
+      <c r="E19" s="8">
+        <v>163422000</v>
+      </c>
+      <c r="F19" s="8">
+        <v>174485000</v>
+      </c>
+      <c r="G19" s="9">
+        <v>207823000</v>
+      </c>
+      <c r="H19" s="9">
+        <v>207823000</v>
+      </c>
       <c r="I19" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44401000</v>
       </c>
       <c r="J19" s="23"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
       <c r="I20" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="23"/>
+      <c r="J20" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="8">
+        <v>4676279000</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4684279000</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4684279000</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4499240000</v>
+      </c>
+      <c r="G21" s="9">
+        <v>4499240000</v>
+      </c>
+      <c r="H21" s="9">
+        <v>4499240000</v>
+      </c>
       <c r="I21" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-185039000</v>
       </c>
       <c r="J21" s="23"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1131465000</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1131465000</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1131465000</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1285459000</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1285459000</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1285459000</v>
+      </c>
       <c r="I22" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>153994000</v>
       </c>
       <c r="J22" s="23"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
       <c r="I23" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="23"/>
+      <c r="J23" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="C24" s="10">
+        <v>941000</v>
+      </c>
+      <c r="D24" s="10">
+        <v>941000</v>
+      </c>
+      <c r="E24" s="10">
+        <v>941000</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
       <c r="I24" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="23"/>
+        <v>-941000</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="C25" s="10">
+        <v>364273685</v>
+      </c>
+      <c r="D25" s="10">
+        <v>364273685</v>
+      </c>
+      <c r="E25" s="10">
+        <v>364273685</v>
+      </c>
+      <c r="F25" s="10">
+        <v>314674000</v>
+      </c>
+      <c r="G25" s="11">
+        <v>314674000</v>
+      </c>
+      <c r="H25" s="11">
+        <v>314674000</v>
+      </c>
       <c r="I25" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-49599685</v>
       </c>
       <c r="J25" s="23"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="C26" s="10">
+        <v>505658396</v>
+      </c>
+      <c r="D26" s="10">
+        <v>505658396</v>
+      </c>
+      <c r="E26" s="10">
+        <v>505658396</v>
+      </c>
+      <c r="F26" s="10">
+        <v>562143000</v>
+      </c>
+      <c r="G26" s="11">
+        <v>562143000</v>
+      </c>
+      <c r="H26" s="11">
+        <v>562143000</v>
+      </c>
       <c r="I26" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56484604</v>
       </c>
       <c r="J26" s="23"/>
     </row>
@@ -5803,31 +6580,31 @@
       </c>
       <c r="C27" s="17">
         <f t="shared" ref="C27:H27" si="2">SUM(C17:C26)</f>
-        <v>0</v>
+        <v>6923301900</v>
       </c>
       <c r="D27" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6931301900</v>
       </c>
       <c r="E27" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6931301900</v>
       </c>
       <c r="F27" s="17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6921100000</v>
       </c>
       <c r="G27" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6954438000</v>
       </c>
       <c r="H27" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6954438000</v>
       </c>
       <c r="I27" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>23136100</v>
       </c>
       <c r="J27" s="24"/>
     </row>
@@ -5847,8 +6624,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B182FB6-7E17-4CF3-A6EB-6EAA36AC8CDA}">
+  <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
@@ -5857,68 +6634,62 @@
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.8984375" customWidth="1"/>
-    <col min="2" max="3" width="15.69921875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="15.69921875" customWidth="1"/>
+    <col min="2" max="7" width="15.69921875" customWidth="1"/>
     <col min="8" max="8" width="50.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1"/>
+    <row r="2" spans="2:8" ht="32.4" x14ac:dyDescent="0.4">
+      <c r="B2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="33"/>
       <c r="H2" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+    </row>
+    <row r="4" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="39">
         <v>2018</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35">
+      <c r="D4" s="39"/>
+      <c r="E4" s="39">
         <v>2019</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="15" t="s">
-        <v>84</v>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="39"/>
+      <c r="C5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="35" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="6">
         <v>729357</v>
@@ -5938,10 +6709,9 @@
       </c>
       <c r="H6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="14" t="s">
-        <v>85</v>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="8">
         <v>4403025</v>
@@ -5961,10 +6731,9 @@
       </c>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="14" t="s">
-        <v>86</v>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="C8" s="8">
         <v>9449966</v>
@@ -5984,10 +6753,9 @@
       </c>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="14" t="s">
-        <v>87</v>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="8">
         <v>2280373</v>
@@ -6007,10 +6775,9 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="14" t="s">
-        <v>88</v>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="C10" s="8">
         <v>62575040</v>
@@ -6030,10 +6797,9 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="14" t="s">
-        <v>89</v>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="8">
         <v>1316175550</v>
@@ -6053,10 +6819,9 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="14" t="s">
-        <v>90</v>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C12" s="8">
         <v>10971808</v>
@@ -6076,9 +6841,9 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="13" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C13" s="10">
         <v>7385394</v>
@@ -6098,9 +6863,9 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="13" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="C14" s="10">
         <v>6720651</v>
@@ -6120,9 +6885,9 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="13" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="C15" s="10">
         <v>165041</v>
@@ -6142,9 +6907,9 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="16" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C16" s="17">
         <f>SUM(C6:C15)</f>
@@ -6169,8 +6934,8 @@
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="15" t="s">
-        <v>95</v>
+      <c r="B17" s="35" t="s">
+        <v>4</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -6188,11 +6953,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="14" t="s">
-        <v>96</v>
+      <c r="B18" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="C18" s="8">
         <v>0</v>
@@ -6210,11 +6977,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="23"/>
+      <c r="H18" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="14" t="s">
-        <v>86</v>
+      <c r="B19" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="C19" s="8">
         <v>136782</v>
@@ -6235,8 +7004,8 @@
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="14" t="s">
-        <v>97</v>
+      <c r="B20" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C20" s="8">
         <v>0</v>
@@ -6254,11 +7023,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="14" t="s">
-        <v>98</v>
+      <c r="B21" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="C21" s="8">
         <v>0</v>
@@ -6276,11 +7047,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="23"/>
+      <c r="H21" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="14" t="s">
-        <v>99</v>
+      <c r="B22" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="C22" s="8">
         <v>87279413</v>
@@ -6301,8 +7074,8 @@
       <c r="H22" s="23"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="14" t="s">
-        <v>100</v>
+      <c r="B23" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -6320,11 +7093,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="13" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="C24" s="10">
         <v>34969</v>
@@ -6346,7 +7121,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B25" s="13" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="C25" s="10">
         <v>23442</v>
@@ -6368,7 +7143,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="13" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="C26" s="10">
         <v>1272414</v>
@@ -6390,7 +7165,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="16" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C27" s="17">
         <f>SUM(C17:C26)</f>

--- a/KS_재정통계자료작성/Result/세출_지출_세목_세부사업_예산편성현황_2019.xlsx
+++ b/KS_재정통계자료작성/Result/세출_지출_세목_세부사업_예산편성현황_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\KS_재정통계자료작성\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8184D1-B3BE-4578-98B6-08BE3B80D82C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB41FDE-1A63-4CE6-9260-A14C83BCD358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2544" windowWidth="23040" windowHeight="10416" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="세출_지출_세부사업(외화)" sheetId="1" r:id="rId1"/>
@@ -1385,7 +1385,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7D27D5-056F-4380-8A72-1E2AA13F6EF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3FE3F5-3745-4144-B95B-E0AD9264F00A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1456,7 +1456,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54BBA46-3915-4747-95F8-F8755CD7A66C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9E33C4-C47C-41C7-A0B0-7FE68F855C6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1527,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B93AE7-27FF-46CC-A1C5-CAE18767C140}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6AA3A9D-FAF0-4B81-806D-892DDED937D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1598,7 +1598,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76E8B34-72FB-4593-BDD6-B4BA44242806}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B6B795-63AC-46C0-B8A5-F5ED2D6D07E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4599,7 +4599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571AB1FD-D7B6-437F-ACA2-0CE23C72B58C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D539F8-AF50-4F38-A6F1-BF3156844844}">
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -5176,7 +5176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F358B8C0-BAFF-4E21-B11E-24DF0E99A217}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617AB94E-B357-434A-B546-695F06F0ED89}">
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -5899,7 +5899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5F0B68-0EA5-47BC-B75C-FD594D40478C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2663391A-F652-4ACF-8818-04C3B3B40B26}">
   <dimension ref="B2:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -6624,7 +6624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B182FB6-7E17-4CF3-A6EB-6EAA36AC8CDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49533224-C852-4821-9E89-8444DF117B1F}">
   <dimension ref="B2:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
